--- a/outputs/logs/resultsAll.xlsx
+++ b/outputs/logs/resultsAll.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benedict\cs_projects\fyp\ferryServiceVRP\outputs\logs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/chen1242_e_ntu_edu_sg/Documents/Documents/School/NTU/FYP/FYP_Chen_Si_Xian_Benedict/Codes/ferryServiceVRP/outputs/logs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920FE5AD-CDCD-433F-819C-119BF2500908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2233DD1C-34DB-4472-8459-636426A89A29}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Programming Model" sheetId="3" r:id="rId1"/>
@@ -6433,7 +6433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22353FE8-9054-42AB-908E-E46762EEA4B1}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
@@ -8761,7 +8761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7A6337-75B7-43DD-A58F-79890A9B5199}">
   <dimension ref="A1:W66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
@@ -10904,7 +10904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178B82E0-06C7-45F0-A54E-288505D84825}">
   <dimension ref="A1:AF97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
